--- a/estate.xlsx
+++ b/estate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\【授業】2021\【授業】一橋\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiros-h/Documents/GitHub/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8656F09D-84FA-4747-BCCB-34A329C1FFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABD6D07-43BB-CF44-9AED-10C167F24062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4163" yWindow="2737" windowWidth="18382" windowHeight="15135" xr2:uid="{4977AF05-519C-47D2-90C7-17ADDC9D70E3}"/>
+    <workbookView xWindow="4160" yWindow="2740" windowWidth="27000" windowHeight="20800" xr2:uid="{4977AF05-519C-47D2-90C7-17ADDC9D70E3}"/>
   </bookViews>
   <sheets>
     <sheet name="物件データ" sheetId="22" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="32">
   <si>
     <t>マンション物件データ</t>
     <rPh sb="5" eb="7">
@@ -74,12 +74,6 @@
   </si>
   <si>
     <t>築</t>
-  </si>
-  <si>
-    <t>階</t>
-  </si>
-  <si>
-    <t>間取り</t>
   </si>
   <si>
     <t>面積</t>
@@ -244,12 +238,36 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>walk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>floor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>layout</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>area</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ybuilt</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -650,19 +668,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FFF0EB-2ACF-4DE7-83E9-17838FD536D1}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F30" sqref="F30"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="4" width="5.625" customWidth="1"/>
+    <col min="1" max="4" width="5.6640625" customWidth="1"/>
     <col min="5" max="7" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -673,30 +691,30 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>1</v>
       </c>
@@ -710,7 +728,7 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <v>38.35</v>
@@ -719,7 +737,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>2</v>
       </c>
@@ -733,7 +751,7 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F5">
         <v>22.85</v>
@@ -742,7 +760,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>3</v>
       </c>
@@ -756,7 +774,7 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F6">
         <v>21.96</v>
@@ -765,7 +783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>4</v>
       </c>
@@ -779,7 +797,7 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F7">
         <v>21.96</v>
@@ -788,7 +806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>5</v>
       </c>
@@ -802,7 +820,7 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F8">
         <v>18.03</v>
@@ -811,7 +829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>6</v>
       </c>
@@ -825,7 +843,7 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F9">
         <v>36.83</v>
@@ -834,7 +852,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>7</v>
       </c>
@@ -848,7 +866,7 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F10">
         <v>17.62</v>
@@ -857,7 +875,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>8</v>
       </c>
@@ -871,7 +889,7 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F11">
         <v>19</v>
@@ -880,7 +898,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>9</v>
       </c>
@@ -894,7 +912,7 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F12">
         <v>15</v>
@@ -903,7 +921,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>10</v>
       </c>
@@ -917,7 +935,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F13">
         <v>16</v>
@@ -926,7 +944,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>11</v>
       </c>
@@ -940,7 +958,7 @@
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F14">
         <v>39.6</v>
@@ -949,7 +967,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>12</v>
       </c>
@@ -963,7 +981,7 @@
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F15">
         <v>39.6</v>
@@ -972,7 +990,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>13</v>
       </c>
@@ -986,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F16">
         <v>23.48</v>
@@ -995,7 +1013,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1009,7 +1027,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F17">
         <v>32.06</v>
@@ -1018,7 +1036,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1032,7 +1050,7 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F18">
         <v>31.73</v>
@@ -1041,7 +1059,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1055,7 +1073,7 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F19">
         <v>69.98</v>
@@ -1064,7 +1082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1078,7 +1096,7 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F20">
         <v>30.03</v>
@@ -1087,7 +1105,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1101,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F21">
         <v>30.03</v>
@@ -1110,7 +1128,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>19</v>
       </c>
@@ -1124,7 +1142,7 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F22">
         <v>35.53</v>
@@ -1133,7 +1151,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1147,7 +1165,7 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F23">
         <v>37.32</v>
@@ -1156,7 +1174,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>21</v>
       </c>
@@ -1170,7 +1188,7 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F24">
         <v>14.54</v>
@@ -1179,7 +1197,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>22</v>
       </c>
@@ -1193,7 +1211,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F25">
         <v>14.54</v>
@@ -1202,7 +1220,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>23</v>
       </c>
@@ -1216,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F26">
         <v>14.54</v>
@@ -1225,7 +1243,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>24</v>
       </c>
@@ -1239,7 +1257,7 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F27">
         <v>25</v>
@@ -1248,7 +1266,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>25</v>
       </c>
@@ -1262,7 +1280,7 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F28">
         <v>26</v>
@@ -1271,7 +1289,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>26</v>
       </c>
@@ -1285,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F29">
         <v>41.2</v>
@@ -1294,7 +1312,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>27</v>
       </c>
@@ -1308,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F30">
         <v>49.46</v>
@@ -1317,7 +1335,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>28</v>
       </c>
@@ -1331,7 +1349,7 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F31">
         <v>16.5</v>
@@ -1340,7 +1358,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>29</v>
       </c>
@@ -1354,7 +1372,7 @@
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F32">
         <v>37.78</v>
@@ -1363,7 +1381,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>30</v>
       </c>
@@ -1377,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F33">
         <v>37.78</v>
@@ -1386,7 +1404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>31</v>
       </c>
@@ -1400,7 +1418,7 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F34">
         <v>43.1</v>
@@ -1409,7 +1427,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>32</v>
       </c>
@@ -1423,7 +1441,7 @@
         <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F35">
         <v>36.44</v>
@@ -1432,7 +1450,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>33</v>
       </c>
@@ -1446,7 +1464,7 @@
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F36">
         <v>38.6</v>
@@ -1455,7 +1473,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>34</v>
       </c>
@@ -1469,7 +1487,7 @@
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F37">
         <v>38.6</v>
@@ -1478,7 +1496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>35</v>
       </c>
@@ -1492,7 +1510,7 @@
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F38">
         <v>38.6</v>
@@ -1501,7 +1519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>36</v>
       </c>
@@ -1515,7 +1533,7 @@
         <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F39">
         <v>35.64</v>
@@ -1524,7 +1542,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>37</v>
       </c>
@@ -1538,7 +1556,7 @@
         <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F40">
         <v>35.64</v>
@@ -1547,7 +1565,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>38</v>
       </c>
@@ -1561,7 +1579,7 @@
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F41">
         <v>35.64</v>
@@ -1570,7 +1588,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>39</v>
       </c>
@@ -1584,7 +1602,7 @@
         <v>4</v>
       </c>
       <c r="E42" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F42">
         <v>33.47</v>
@@ -1593,7 +1611,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>40</v>
       </c>
@@ -1607,7 +1625,7 @@
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F43">
         <v>18</v>
@@ -1616,7 +1634,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>41</v>
       </c>
@@ -1630,7 +1648,7 @@
         <v>4</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F44">
         <v>27.2</v>
@@ -1639,7 +1657,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>42</v>
       </c>
@@ -1653,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F45">
         <v>27.2</v>
@@ -1662,7 +1680,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>43</v>
       </c>
@@ -1676,7 +1694,7 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F46">
         <v>20.02</v>
@@ -1685,7 +1703,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>44</v>
       </c>
@@ -1699,7 +1717,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F47">
         <v>20.02</v>
@@ -1708,7 +1726,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>45</v>
       </c>
@@ -1722,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F48">
         <v>21.45</v>
@@ -1731,7 +1749,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>46</v>
       </c>
@@ -1745,7 +1763,7 @@
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F49">
         <v>43.55</v>
@@ -1754,7 +1772,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>47</v>
       </c>
@@ -1768,7 +1786,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F50">
         <v>43</v>
@@ -1777,7 +1795,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>48</v>
       </c>
@@ -1791,7 +1809,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F51">
         <v>43</v>
@@ -1800,7 +1818,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>49</v>
       </c>
@@ -1814,7 +1832,7 @@
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F52">
         <v>20</v>
@@ -1823,7 +1841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>50</v>
       </c>
@@ -1837,7 +1855,7 @@
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F53">
         <v>28.23</v>
@@ -1866,15 +1884,15 @@
       <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="3" width="5.625" customWidth="1"/>
+    <col min="1" max="3" width="5.6640625" customWidth="1"/>
     <col min="4" max="5" width="8" customWidth="1"/>
     <col min="6" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="25.25" customWidth="1"/>
+    <col min="11" max="11" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:14">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1883,10 +1901,10 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="G1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1897,25 +1915,25 @@
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1943,16 +1961,16 @@
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1969,7 +1987,7 @@
         <v>7.4</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L5" cm="1">
         <f t="array" ref="L5:N9">LINEST(E4:E53,C4:D53,TRUE,TRUE)</f>
@@ -1982,7 +2000,7 @@
         <v>2.8212908089773414</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1999,14 +2017,14 @@
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I6">
         <f>N5+M5*G4+L5*H4</f>
         <v>6.9951839965529565</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L6">
         <v>1.2911454462480621E-2</v>
@@ -2018,7 +2036,7 @@
         <v>0.48194941230289995</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2035,7 +2053,7 @@
         <v>8</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L7">
         <v>0.90643733474736465</v>
@@ -2047,7 +2065,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2064,7 +2082,7 @@
         <v>5</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L8">
         <v>227.66856105526662</v>
@@ -2076,7 +2094,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2093,7 +2111,7 @@
         <v>11.2</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L9">
         <v>458.02278524784344</v>
@@ -2105,7 +2123,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2122,7 +2140,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2139,7 +2157,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>9</v>
       </c>
@@ -2156,7 +2174,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2173,7 +2191,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>11</v>
       </c>
@@ -2190,7 +2208,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>12</v>
       </c>
@@ -2207,7 +2225,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>13</v>
       </c>
@@ -2224,7 +2242,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>14</v>
       </c>
@@ -2241,7 +2259,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>15</v>
       </c>
@@ -2258,7 +2276,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>16</v>
       </c>
@@ -2275,7 +2293,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>17</v>
       </c>
@@ -2292,7 +2310,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>18</v>
       </c>
@@ -2309,7 +2327,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>19</v>
       </c>
@@ -2326,7 +2344,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>20</v>
       </c>
@@ -2343,7 +2361,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>21</v>
       </c>
@@ -2360,7 +2378,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>22</v>
       </c>
@@ -2377,7 +2395,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>23</v>
       </c>
@@ -2394,7 +2412,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>24</v>
       </c>
@@ -2411,7 +2429,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>25</v>
       </c>
@@ -2428,7 +2446,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>26</v>
       </c>
@@ -2445,7 +2463,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>27</v>
       </c>
@@ -2462,7 +2480,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>28</v>
       </c>
@@ -2479,7 +2497,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>29</v>
       </c>
@@ -2496,7 +2514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>30</v>
       </c>
@@ -2513,7 +2531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>31</v>
       </c>
@@ -2530,7 +2548,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>32</v>
       </c>
@@ -2547,7 +2565,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>33</v>
       </c>
@@ -2564,7 +2582,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>34</v>
       </c>
@@ -2581,7 +2599,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>35</v>
       </c>
@@ -2598,7 +2616,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>36</v>
       </c>
@@ -2615,7 +2633,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>37</v>
       </c>
@@ -2632,7 +2650,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>38</v>
       </c>
@@ -2649,7 +2667,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>39</v>
       </c>
@@ -2666,7 +2684,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>40</v>
       </c>
@@ -2683,7 +2701,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>41</v>
       </c>
@@ -2700,7 +2718,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>42</v>
       </c>
@@ -2717,7 +2735,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>43</v>
       </c>
@@ -2734,7 +2752,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>44</v>
       </c>
@@ -2751,7 +2769,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>45</v>
       </c>
@@ -2768,7 +2786,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>46</v>
       </c>
@@ -2785,7 +2803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>47</v>
       </c>
@@ -2802,7 +2820,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>48</v>
       </c>
@@ -2819,7 +2837,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>49</v>
       </c>
@@ -2836,7 +2854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>50</v>
       </c>
@@ -2873,15 +2891,15 @@
       <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="3" width="5.625" customWidth="1"/>
+    <col min="1" max="3" width="5.6640625" customWidth="1"/>
     <col min="4" max="5" width="8" customWidth="1"/>
     <col min="6" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="25.25" customWidth="1"/>
+    <col min="12" max="12" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:16">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2890,10 +2908,10 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="H1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2904,28 +2922,28 @@
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2956,19 +2974,19 @@
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2985,7 +3003,7 @@
         <v>7.4</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M5" cm="1">
         <f t="array" ref="M5:P9">LINEST(E4:E53,B4:D53,TRUE,TRUE)</f>
@@ -3001,7 +3019,7 @@
         <v>3.0420743325027804</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3018,14 +3036,14 @@
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J6">
         <f>P5+O5*G4+N5*H4+M5*I4</f>
         <v>6.5884101478248525</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M6">
         <v>1.3632072108604901E-2</v>
@@ -3040,7 +3058,7 @@
         <v>0.53826680004909089</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>4</v>
       </c>
@@ -3057,7 +3075,7 @@
         <v>8</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M7">
         <v>0.9081522016901078</v>
@@ -3072,7 +3090,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>5</v>
       </c>
@@ -3089,7 +3107,7 @@
         <v>5</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M8">
         <v>151.60951794328668</v>
@@ -3104,7 +3122,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>6</v>
       </c>
@@ -3121,7 +3139,7 @@
         <v>11.2</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M9">
         <v>458.88930751401153</v>
@@ -3136,7 +3154,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>7</v>
       </c>
@@ -3153,7 +3171,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>8</v>
       </c>
@@ -3170,7 +3188,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>9</v>
       </c>
@@ -3187,7 +3205,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>10</v>
       </c>
@@ -3204,7 +3222,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>11</v>
       </c>
@@ -3221,7 +3239,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>12</v>
       </c>
@@ -3238,7 +3256,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>13</v>
       </c>
@@ -3255,7 +3273,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>14</v>
       </c>
@@ -3272,7 +3290,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>15</v>
       </c>
@@ -3289,7 +3307,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>16</v>
       </c>
@@ -3306,7 +3324,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>17</v>
       </c>
@@ -3323,7 +3341,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>18</v>
       </c>
@@ -3340,7 +3358,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>19</v>
       </c>
@@ -3357,7 +3375,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>20</v>
       </c>
@@ -3374,7 +3392,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>21</v>
       </c>
@@ -3391,7 +3409,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>22</v>
       </c>
@@ -3408,7 +3426,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>23</v>
       </c>
@@ -3425,7 +3443,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>24</v>
       </c>
@@ -3442,7 +3460,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>25</v>
       </c>
@@ -3459,7 +3477,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>26</v>
       </c>
@@ -3476,7 +3494,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>27</v>
       </c>
@@ -3493,7 +3511,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>28</v>
       </c>
@@ -3510,7 +3528,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>29</v>
       </c>
@@ -3527,7 +3545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>30</v>
       </c>
@@ -3544,7 +3562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>31</v>
       </c>
@@ -3561,7 +3579,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>32</v>
       </c>
@@ -3578,7 +3596,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>33</v>
       </c>
@@ -3595,7 +3613,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>34</v>
       </c>
@@ -3612,7 +3630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>35</v>
       </c>
@@ -3629,7 +3647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>36</v>
       </c>
@@ -3646,7 +3664,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>37</v>
       </c>
@@ -3663,7 +3681,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>38</v>
       </c>
@@ -3680,7 +3698,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>39</v>
       </c>
@@ -3697,7 +3715,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>40</v>
       </c>
@@ -3714,7 +3732,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>41</v>
       </c>
@@ -3731,7 +3749,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>42</v>
       </c>
@@ -3748,7 +3766,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>43</v>
       </c>
@@ -3765,7 +3783,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>44</v>
       </c>
@@ -3782,7 +3800,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>45</v>
       </c>
@@ -3799,7 +3817,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>46</v>
       </c>
@@ -3816,7 +3834,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>47</v>
       </c>
@@ -3833,7 +3851,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>48</v>
       </c>
@@ -3850,7 +3868,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>49</v>
       </c>
@@ -3867,7 +3885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>50</v>
       </c>
